--- a/biology/Médecine/Ministère_de_la_Santé_(Pays-Bas)/Ministère_de_la_Santé_(Pays-Bas).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_(Pays-Bas)/Ministère_de_la_Santé_(Pays-Bas).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Pays-Bas)</t>
+          <t>Ministère_de_la_Santé_(Pays-Bas)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ministère de la Santé publique, du Bien-être et des Sports (en néerlandais : Ministerie van Volksgezondheid, Welzijn en Sport, VWS), abrégé en ministère de la Santé, est un département ministériel du gouvernement du royaume des Pays-Bas.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Pays-Bas)</t>
+          <t>Ministère_de_la_Santé_(Pays-Bas)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère tire ses origines du ministère des Affaires sociales et de la Santé publique[n 1] créé en 1951.
-Le ministère a été créé en 1982 sous le nom « ministère du Bien-être, de la Santé publique et de la Culture[n 2] », une reprise de certaines activités des ministères de la Culture, des Loisirs et du Travail social[n 3] et de la Santé publique et de l'Hygiène de l'environnement[n 4],[2].
+Le ministère a été créé en 1982 sous le nom « ministère du Bien-être, de la Santé publique et de la Culture[n 2] », une reprise de certaines activités des ministères de la Culture, des Loisirs et du Travail social[n 3] et de la Santé publique et de l'Hygiène de l'environnement[n 4],.
 En 1994, le ministère prend son nom actuel, quand la politique culturelle est passée sous la responsabilité du ministère de l'Éducation, de la Culture et de la Science. Aujourd'hui, le ministère a son siège, avec le ministère des Affaires sociales et de l'Emploi, à La Haye. Jusqu'en 1998, le ministère était situé à Ryswick.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Pays-Bas)</t>
+          <t>Ministère_de_la_Santé_(Pays-Bas)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,17 +562,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ministres actuels
-Le ministère est actuellement dirigé par deux ministres et un secrétaire d'État. Les bureaux principaux du ministère sont situés dans le centre de La Haye, dans l'immeuble Castalia.
+          <t>Ministres actuels</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère est actuellement dirigé par deux ministres et un secrétaire d'État. Les bureaux principaux du ministère sont situés dans le centre de La Haye, dans l'immeuble Castalia.
 Depuis le 10 janvier 2022, le ministre de la Santé, du Bien-être et des Sports des Pays-Bas est Ernst Kuipers (D66). Le ministre des Soins Médicaux, de Longue durée et des Sports est Conny Helder (VVD) et le secrétaire d'État aux Soins aux jeunes et aux Soins préventifs Maarten van Ooijen (CU).
-Agences
-Le ministère de la Santé publique, du Bien-être et des Sports comprend également plusieurs agences :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Pays-Bas)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Pays-Bas)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Agences</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le ministère de la Santé publique, du Bien-être et des Sports comprend également plusieurs agences :
 Institut national de la santé publique et de l'environnement (RIVM, Rijksinstituut voor Volksgezondheid en Milieu) ;
 Inspection des soins de santé et de la jeunesse (nl) (IGJ, Inspectie Gezondheidszorg en Jeugd) ;
 Collège d'évaluation des médicaments (nl) (CBG, College ter Beoordeling Geneesmiddelen) ;
 Point d'information central sur les professions de santé (nl) (CIBG, Centraal Informatiepunt Beroepen Gezondheidszorg).
 Activités abandonnées
-Institut néerlandais du vaccin (nl) (NVI, Nederlands Vaccin Instituut). L'Institut néerlandais du vaccin a été vendu en 2012 au Institut du sérum de l'Inde (SII)[3]. Les activités du NVI passent désormais sous la responsabilité du RIVM[3].</t>
+Institut néerlandais du vaccin (nl) (NVI, Nederlands Vaccin Instituut). L'Institut néerlandais du vaccin a été vendu en 2012 au Institut du sérum de l'Inde (SII). Les activités du NVI passent désormais sous la responsabilité du RIVM.</t>
         </is>
       </c>
     </row>
